--- a/datasets/publicidad.xlsx
+++ b/datasets/publicidad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debie\Dropbox\multiv.datamining\Mendoza\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Austral\mcd-reg-adv\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DE2097-3CD6-45E5-B141-A070C5E63308}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBE9772-0C59-48C4-9B3E-B077656E8525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publicidad" sheetId="1" r:id="rId1"/>
@@ -522,48 +522,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -579,7 +579,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -877,11 +877,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -898,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -915,7 +917,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -932,7 +934,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -949,7 +951,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -966,7 +968,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -983,7 +985,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1000,7 +1002,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1017,7 +1019,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1034,7 +1036,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1051,7 +1053,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1068,7 +1070,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1085,7 +1087,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1102,7 +1104,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1119,7 +1121,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1136,7 +1138,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1153,7 +1155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1170,7 +1172,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1204,7 +1206,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1221,7 +1223,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1238,7 +1240,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1255,7 +1257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1272,7 +1274,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1306,7 +1308,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1323,7 +1325,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1340,7 +1342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1374,7 +1376,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1391,7 +1393,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1408,7 +1410,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1425,7 +1427,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1442,7 +1444,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1476,7 +1478,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1493,7 +1495,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1510,7 +1512,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1527,7 +1529,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1544,7 +1546,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1561,7 +1563,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1578,7 +1580,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1595,7 +1597,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1612,7 +1614,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1646,7 +1648,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1663,7 +1665,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1680,7 +1682,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1697,7 +1699,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1714,7 +1716,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1731,7 +1733,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1748,7 +1750,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1765,7 +1767,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1782,7 +1784,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1799,7 +1801,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1816,7 +1818,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1833,7 +1835,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1850,7 +1852,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1867,7 +1869,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1884,7 +1886,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1901,7 +1903,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1918,7 +1920,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1935,7 +1937,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1952,7 +1954,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1969,7 +1971,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1986,7 +1988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2003,7 +2005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2020,7 +2022,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2037,7 +2039,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2054,7 +2056,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2071,7 +2073,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2088,7 +2090,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2105,7 +2107,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2122,7 +2124,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2139,7 +2141,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2156,7 +2158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2173,7 +2175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2190,7 +2192,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2207,7 +2209,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2224,7 +2226,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2241,7 +2243,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2258,7 +2260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2275,7 +2277,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2292,7 +2294,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2309,7 +2311,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2326,7 +2328,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2343,7 +2345,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2360,7 +2362,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2377,7 +2379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2394,7 +2396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2411,7 +2413,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2428,7 +2430,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2445,7 +2447,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2462,7 +2464,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2479,7 +2481,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2496,7 +2498,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2513,7 +2515,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2530,7 +2532,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2547,7 +2549,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2564,7 +2566,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2581,7 +2583,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2598,7 +2600,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2615,7 +2617,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2632,7 +2634,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2649,7 +2651,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2666,7 +2668,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2683,7 +2685,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2700,7 +2702,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2717,7 +2719,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2734,7 +2736,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2751,7 +2753,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2768,7 +2770,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2785,7 +2787,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2802,7 +2804,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2819,7 +2821,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2853,7 +2855,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2870,7 +2872,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2887,7 +2889,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2904,7 +2906,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2921,7 +2923,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2938,7 +2940,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2955,7 +2957,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2972,7 +2974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2989,7 +2991,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3006,7 +3008,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3023,7 +3025,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3040,7 +3042,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3057,7 +3059,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3074,7 +3076,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3091,7 +3093,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3108,7 +3110,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3125,7 +3127,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3142,7 +3144,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3159,7 +3161,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3176,7 +3178,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3193,7 +3195,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3210,7 +3212,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3227,7 +3229,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3244,7 +3246,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3261,7 +3263,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3278,7 +3280,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3295,7 +3297,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3312,7 +3314,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3329,7 +3331,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3346,7 +3348,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3363,7 +3365,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3380,7 +3382,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3397,7 +3399,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3414,7 +3416,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3448,7 +3450,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3465,7 +3467,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3482,7 +3484,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3499,7 +3501,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3516,7 +3518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3533,7 +3535,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3550,7 +3552,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3567,7 +3569,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3584,7 +3586,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3601,7 +3603,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3618,7 +3620,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3635,7 +3637,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -3652,7 +3654,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -3669,7 +3671,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -3686,7 +3688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -3703,7 +3705,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -3720,7 +3722,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -3737,7 +3739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -3754,7 +3756,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -3771,7 +3773,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -3788,7 +3790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -3805,7 +3807,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -3822,7 +3824,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -3839,7 +3841,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -3856,7 +3858,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -3873,7 +3875,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -3890,7 +3892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -3907,7 +3909,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -3924,7 +3926,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -3941,7 +3943,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -3958,7 +3960,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -3975,7 +3977,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -3992,7 +3994,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4009,7 +4011,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4026,7 +4028,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4043,7 +4045,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4060,7 +4062,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4077,7 +4079,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4094,7 +4096,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4111,7 +4113,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4128,7 +4130,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4145,7 +4147,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4162,7 +4164,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4179,7 +4181,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4196,7 +4198,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4213,7 +4215,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4230,7 +4232,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4247,7 +4249,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4264,7 +4266,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4281,7 +4283,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>

--- a/datasets/publicidad.xlsx
+++ b/datasets/publicidad.xlsx
@@ -8,19 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Austral\mcd-reg-adv\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBE9772-0C59-48C4-9B3E-B077656E8525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{145ED357-B634-4072-8F14-84A86EF306D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5A4F737B-5414-452A-BE7C-0EC15BE1AD89}"/>
   </bookViews>
   <sheets>
-    <sheet name="publicidad" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>orden</t>
+  </si>
   <si>
     <t>tv</t>
   </si>
@@ -33,15 +50,12 @@
   <si>
     <t>ventas</t>
   </si>
-  <si>
-    <t>orden</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,316 +63,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -366,204 +80,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -874,30 +399,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A7B28D-8F8B-411C-A537-627E013F5598}">
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:E201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
